--- a/out/Devika/Boh uge 23.xlsx
+++ b/out/Devika/Boh uge 23.xlsx
@@ -368,7 +368,7 @@
     <t>9% filler,90% productNameHeader,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>9% filler,90% NrHeader,</t>
@@ -389,13 +389,13 @@
     <t>3% filler,19% containsProductNr,38% containsAmount,38% QuantityHeader,</t>
   </si>
   <si>
+    <t>2% filler,27% containsProduct,13% containsProductNr,27% containsAmount,27% QuantityHeader,</t>
+  </si>
+  <si>
     <t>3% filler,38% containsProduct,19% containsProductNr,38% containsAmount,</t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
-  </si>
-  <si>
-    <t/>
+    <t xml:space="preserve">PRODUKT, VARENR, </t>
   </si>
   <si>
     <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
@@ -505,7 +505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,7 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -611,6 +611,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF066D90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF093666"/>
       </patternFill>
     </fill>
@@ -628,7 +633,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E8B57"/>
       </patternFill>
     </fill>
     <fill>
@@ -782,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1146,11 +1166,11 @@
     <xf numFmtId="2" applyNumberFormat="1" fontId="5" applyFont="1" fillId="10" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="18" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="2" applyNumberFormat="1" fontId="6" applyFont="1" fillId="12" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="18" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="10" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1161,14 +1181,15 @@
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="10" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="19" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="20" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="9" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="21" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="21" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" applyNumberFormat="1" fontId="6" applyFont="1" fillId="10" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -1177,10 +1198,10 @@
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="18" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="22" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1193,40 +1214,57 @@
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="10" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="2" applyNumberFormat="1" fontId="5" applyFont="1" fillId="24" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="24" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="25" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="25" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="25" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="28" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2504,7 +2542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57BB2FD-8A01-4F7C-9956-95C6ECC9A619}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DF8C56-ACEE-4861-BE07-B4AC517DD191}">
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
@@ -2557,7 +2595,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="158" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="82"/>
@@ -2608,7 +2646,7 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="158">
+      <c r="B6" s="159">
         <v>38670440</v>
       </c>
       <c r="C6" s="82"/>
@@ -2694,7 +2732,7 @@
       <c r="F11" s="86"/>
       <c r="G11" s="86"/>
       <c r="H11" s="86"/>
-      <c r="I11" s="149" t="s">
+      <c r="I11" s="148" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2722,6 +2760,9 @@
       </c>
       <c r="H12" s="26" t="s">
         <v>21</v>
+      </c>
+      <c r="I12" s="150" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -2959,7 +3000,7 @@
       <c r="H22" s="76"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="138" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="140">
@@ -3003,13 +3044,13 @@
       <c r="H24" s="76"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="142" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="140">
         <v>100</v>
       </c>
-      <c r="C25" s="142">
+      <c r="C25" s="143">
         <v>5.5</v>
       </c>
       <c r="D25" s="7"/>
@@ -3025,13 +3066,13 @@
       <c r="H25" s="76"/>
     </row>
     <row r="26">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="142" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="140">
         <v>100</v>
       </c>
-      <c r="C26" s="142">
+      <c r="C26" s="143">
         <v>5.5</v>
       </c>
       <c r="D26" s="131">
@@ -3049,13 +3090,13 @@
       <c r="H26" s="76"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="142" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="140">
         <v>100</v>
       </c>
-      <c r="C27" s="142">
+      <c r="C27" s="143">
         <v>5.5</v>
       </c>
       <c r="D27" s="7"/>
@@ -3071,7 +3112,7 @@
       <c r="H27" s="76"/>
     </row>
     <row r="28">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="142" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="144">
@@ -3095,7 +3136,7 @@
       <c r="H28" s="76"/>
     </row>
     <row r="29">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="142" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="146">
@@ -3161,7 +3202,7 @@
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="149" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="146">
@@ -3183,7 +3224,7 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="149" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="146">
@@ -3205,13 +3246,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="151" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="144">
         <v>1200</v>
       </c>
-      <c r="C34" s="151">
+      <c r="C34" s="152">
         <v>80</v>
       </c>
       <c r="D34" s="18"/>
@@ -3227,13 +3268,13 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="153" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="144">
         <v>100</v>
       </c>
-      <c r="C35" s="151">
+      <c r="C35" s="152">
         <v>15</v>
       </c>
       <c r="D35" s="18"/>
@@ -3249,13 +3290,13 @@
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="144">
         <v>30</v>
       </c>
-      <c r="C36" s="151">
+      <c r="C36" s="152">
         <v>8</v>
       </c>
       <c r="D36" s="18"/>
@@ -3271,7 +3312,7 @@
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="153" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="13"/>
@@ -3289,7 +3330,7 @@
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="153" t="s">
         <v>73</v>
       </c>
       <c r="B38" s="13"/>
@@ -3319,7 +3360,7 @@
       <c r="H39" s="62"/>
     </row>
     <row r="40">
-      <c r="A40" s="153" t="s">
+      <c r="A40" s="154" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="62"/>
@@ -3361,7 +3402,7 @@
         <f>SUM(F21)+F22+F23+F24+F36+F28+F29+F30+F31+F32+F33+N33+F34+F35+F37</f>
         <v>1360</v>
       </c>
-      <c r="G42" s="154">
+      <c r="G42" s="155">
         <f>SUM(G13:G38)</f>
         <v>22640</v>
       </c>
@@ -3383,7 +3424,7 @@
       <c r="H43" s="94"/>
     </row>
     <row r="44" ht="15.75">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="156" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="64"/>
@@ -3395,7 +3436,7 @@
       <c r="H44" s="66"/>
     </row>
     <row r="45" ht="15.75">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="156" t="s">
         <v>59</v>
       </c>
       <c r="B45" s="64"/>
@@ -3460,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7AB09A-DD23-484C-92D7-21E048160E8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA21CD26-46AA-4F2B-941C-B6A0E9180A17}">
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
@@ -3586,30 +3627,18 @@
       <c r="H8" s="90"/>
     </row>
     <row r="9" ht="15.75">
-      <c r="A9" s="159" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="159" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="160" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="163" t="s">
-        <v>86</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="91">
+        <v>57980099919966</v>
+      </c>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="93"/>
     </row>
     <row r="10" ht="15.75">
       <c r="A10" s="1" t="s">
@@ -3634,25 +3663,25 @@
       <c r="H11" s="86"/>
     </row>
     <row r="12" ht="27.75" customHeight="1">
-      <c r="A12" s="164" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="165" t="s">
+      <c r="A12" s="162" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="165" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="167" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="167" t="s">
+      <c r="E12" s="161" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="168" t="s">
+      <c r="G12" s="179" t="s">
         <v>87</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -3660,46 +3689,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="168">
         <v>1400</v>
       </c>
       <c r="C13" s="6">
         <v>28</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="174">
         <v>3</v>
       </c>
       <c r="E13" s="15">
         <f ref="E13:E38" t="shared" si="0">C13*D13</f>
         <v>84</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="29">
+      <c r="F13" s="177"/>
+      <c r="G13" s="180">
         <f>SUM(B13)*D13</f>
         <v>4200</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="168">
         <v>1300</v>
       </c>
       <c r="C14" s="6">
         <v>28</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="29">
+      <c r="F14" s="177"/>
+      <c r="G14" s="180">
         <f ref="G14:G27" t="shared" si="1">SUM(B14)*D14</f>
         <v>0</v>
       </c>
@@ -3708,142 +3737,142 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="168">
         <v>900</v>
       </c>
       <c r="C15" s="6">
         <v>26</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="174">
         <v>2</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="29">
+      <c r="F15" s="177"/>
+      <c r="G15" s="180">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="168">
         <v>640</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="174"/>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="29">
+      <c r="F16" s="177"/>
+      <c r="G16" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="168">
         <v>600</v>
       </c>
       <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="174">
         <v>2</v>
       </c>
       <c r="E17" s="15">
         <f>C17*D17</f>
         <v>50</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="29">
+      <c r="F17" s="177"/>
+      <c r="G17" s="180">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="168">
         <v>600</v>
       </c>
       <c r="C18" s="6">
         <v>28</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="174">
         <v>1</v>
       </c>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="29">
+      <c r="F18" s="177"/>
+      <c r="G18" s="180">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="168">
         <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="174">
         <v>57</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="F19" s="178"/>
+      <c r="G19" s="180">
         <f t="shared" si="1"/>
         <v>3990</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="168">
         <v>70</v>
       </c>
       <c r="C20" s="6">
         <v>5.5</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="174">
         <v>5</v>
       </c>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="F20" s="178"/>
+      <c r="G20" s="180">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
@@ -3852,399 +3881,399 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="169">
         <v>70</v>
       </c>
       <c r="C21" s="6">
         <v>7</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="174">
         <v>5</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="178">
         <f>SUM(B21)*D21</f>
         <v>350</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="180"/>
       <c r="H21" s="76"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="169">
         <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="174">
         <v>10</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="178">
         <f ref="F22:F24" t="shared" si="2">SUM(B22)*D22</f>
         <v>700</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="180"/>
       <c r="H22" s="76"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="170">
         <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="174"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="180"/>
       <c r="H23" s="76"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="170">
         <v>80</v>
       </c>
       <c r="C24" s="43">
         <v>9</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="174"/>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="180"/>
       <c r="H24" s="76"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="170">
         <v>100</v>
       </c>
       <c r="C25" s="11">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="174"/>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="F25" s="178"/>
+      <c r="G25" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="76"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="170">
         <v>100</v>
       </c>
       <c r="C26" s="11">
         <v>5.5</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="174">
         <v>122</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>671</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
+      <c r="F26" s="178"/>
+      <c r="G26" s="180">
         <f t="shared" si="1"/>
         <v>12200</v>
       </c>
       <c r="H26" s="76"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="170">
         <v>100</v>
       </c>
       <c r="C27" s="11">
         <v>5.5</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="174"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="178"/>
+      <c r="G27" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="76"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="171">
         <v>110</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="174">
         <v>10</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="178">
         <f>SUM(B28)*D28</f>
         <v>1100</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="180"/>
       <c r="H28" s="76"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="172">
         <v>80</v>
       </c>
       <c r="C29" s="11">
         <v>7</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="174"/>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="178">
         <f ref="F29:F38" t="shared" si="3">SUM(B29)*D29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="180"/>
       <c r="H29" s="77"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="172">
         <v>900</v>
       </c>
       <c r="C30" s="11">
         <v>100</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="174"/>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="180"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="172">
         <v>80</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="174">
         <v>15</v>
       </c>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="178">
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="180"/>
       <c r="H31" s="16"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="172">
         <v>4000</v>
       </c>
       <c r="C32" s="11">
         <v>275</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="174"/>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="180"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="172">
         <v>4000</v>
       </c>
       <c r="C33" s="11">
         <v>275</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="180"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="171">
         <v>1200</v>
       </c>
       <c r="C34" s="17">
         <v>80</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="175"/>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="180"/>
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="171">
         <v>100</v>
       </c>
       <c r="C35" s="17">
         <v>15</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="175"/>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="180"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="171">
         <v>30</v>
       </c>
       <c r="C36" s="17">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="175"/>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="180"/>
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="173"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="175"/>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="180"/>
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="166"/>
+      <c r="B38" s="173"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="175"/>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="180"/>
       <c r="H38" s="19"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
@@ -4411,7 +4440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5B7BE3-6DA9-433F-9EAC-E0E05FB7AC9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11DEA93-51B6-4E9F-8002-A1A43DC6C871}">
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -4537,66 +4566,18 @@
       <c r="H8" s="90"/>
     </row>
     <row r="9" ht="15.75">
-      <c r="A9" s="159" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="159" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="160" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="163" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="169" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="169" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="169" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="169" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="169" t="s">
-        <v>86</v>
-      </c>
-      <c r="N9" s="169" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="169" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="169" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q9" s="169" t="s">
-        <v>86</v>
-      </c>
-      <c r="R9" s="169" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="169" t="s">
-        <v>86</v>
-      </c>
-      <c r="T9" s="169" t="s">
-        <v>86</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="91">
+        <v>98009991966</v>
+      </c>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="93"/>
     </row>
     <row r="10" ht="15.75">
       <c r="A10" s="1" t="s">
@@ -4621,25 +4602,25 @@
       <c r="H11" s="86"/>
     </row>
     <row r="12" ht="26.25" customHeight="1">
-      <c r="A12" s="164" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="165" t="s">
+      <c r="A12" s="162" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="165" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="167" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="167" t="s">
+      <c r="E12" s="161" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="168" t="s">
+      <c r="G12" s="179" t="s">
         <v>87</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -4647,46 +4628,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="168">
         <v>1400</v>
       </c>
       <c r="C13" s="6">
         <v>28</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="174">
         <v>4</v>
       </c>
       <c r="E13" s="15">
         <f ref="E13:E38" t="shared" si="0">C13*D13</f>
         <v>112</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="29">
+      <c r="F13" s="177"/>
+      <c r="G13" s="180">
         <f>SUM(B13)*D13</f>
         <v>5600</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="168">
         <v>1300</v>
       </c>
       <c r="C14" s="6">
         <v>28</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="29">
+      <c r="F14" s="177"/>
+      <c r="G14" s="180">
         <f ref="G14:G27" t="shared" si="1">SUM(B14)*D14</f>
         <v>0</v>
       </c>
@@ -4695,116 +4676,116 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="168">
         <v>900</v>
       </c>
       <c r="C15" s="6">
         <v>26</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="174"/>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="29">
+      <c r="F15" s="177"/>
+      <c r="G15" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="168">
         <v>640</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="174">
         <v>2</v>
       </c>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="29">
+      <c r="F16" s="177"/>
+      <c r="G16" s="180">
         <f t="shared" si="1"/>
         <v>1280</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="168">
         <v>600</v>
       </c>
       <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="174">
         <v>2</v>
       </c>
       <c r="E17" s="15">
         <f>C17*D17</f>
         <v>50</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="29">
+      <c r="F17" s="177"/>
+      <c r="G17" s="180">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="168">
         <v>600</v>
       </c>
       <c r="C18" s="6">
         <v>28</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="174"/>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="29">
+      <c r="F18" s="177"/>
+      <c r="G18" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="168">
         <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="174">
         <v>56</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="F19" s="178"/>
+      <c r="G19" s="180">
         <f t="shared" si="1"/>
         <v>3920</v>
       </c>
@@ -4820,24 +4801,24 @@
       <c r="S19" s="45"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="168">
         <v>70</v>
       </c>
       <c r="C20" s="6">
         <v>5.5</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="174">
         <v>4</v>
       </c>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="F20" s="178"/>
+      <c r="G20" s="180">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
@@ -4855,27 +4836,27 @@
       <c r="S20" s="45"/>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="169">
         <v>70</v>
       </c>
       <c r="C21" s="6">
         <v>7</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="174">
         <v>5</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="178">
         <f>SUM(B21)*D21</f>
         <v>350</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="180">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
@@ -4891,27 +4872,27 @@
       <c r="S21" s="45"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="169">
         <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="174">
         <v>9</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="178">
         <f ref="F22:F24" t="shared" si="2">SUM(B22)*D22</f>
         <v>630</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="180">
         <f t="shared" si="1"/>
         <v>630</v>
       </c>
@@ -4927,25 +4908,25 @@
       <c r="S22" s="45"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="170">
         <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="174"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="180"/>
       <c r="H23" s="76"/>
       <c r="K23" s="46"/>
       <c r="L23" s="46"/>
@@ -4958,25 +4939,25 @@
       <c r="S23" s="45"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="170">
         <v>80</v>
       </c>
       <c r="C24" s="43">
         <v>9</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="174"/>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="180"/>
       <c r="H24" s="76"/>
       <c r="K24" s="46"/>
       <c r="L24" s="51"/>
@@ -4989,24 +4970,24 @@
       <c r="S24" s="45"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="170">
         <v>100</v>
       </c>
       <c r="C25" s="11">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="174">
         <v>95</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>522.5</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="F25" s="178"/>
+      <c r="G25" s="180">
         <f t="shared" si="1"/>
         <v>9500</v>
       </c>
@@ -5022,22 +5003,22 @@
       <c r="S25" s="45"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="170">
         <v>100</v>
       </c>
       <c r="C26" s="11">
         <v>5.5</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="174"/>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
+      <c r="F26" s="178"/>
+      <c r="G26" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5053,22 +5034,22 @@
       <c r="S26" s="45"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="170">
         <v>100</v>
       </c>
       <c r="C27" s="11">
         <v>5.5</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="174"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="178"/>
+      <c r="G27" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5084,27 +5065,27 @@
       <c r="S27" s="45"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="171">
         <v>110</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="174">
         <v>10</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="178">
         <f>SUM(B28)*D28</f>
         <v>1100</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="180"/>
       <c r="H28" s="76"/>
       <c r="K28" s="52"/>
       <c r="L28" s="51"/>
@@ -5117,25 +5098,25 @@
       <c r="S28" s="45"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="172">
         <v>80</v>
       </c>
       <c r="C29" s="11">
         <v>7</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="174"/>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="178">
         <f ref="F29:F38" t="shared" si="3">SUM(B29)*D29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="180"/>
       <c r="H29" s="77"/>
       <c r="K29" s="52"/>
       <c r="L29" s="51"/>
@@ -5148,25 +5129,25 @@
       <c r="S29" s="45"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="172">
         <v>900</v>
       </c>
       <c r="C30" s="11">
         <v>100</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="174"/>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="180"/>
       <c r="H30" s="8"/>
       <c r="K30" s="52"/>
       <c r="L30" s="51"/>
@@ -5179,25 +5160,25 @@
       <c r="S30" s="45"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="172">
         <v>80</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="174"/>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="180"/>
       <c r="H31" s="16"/>
       <c r="K31" s="52"/>
       <c r="L31" s="51"/>
@@ -5210,25 +5191,25 @@
       <c r="S31" s="45"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="172">
         <v>4000</v>
       </c>
       <c r="C32" s="11">
         <v>275</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="174"/>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="180"/>
       <c r="H32" s="8"/>
       <c r="K32" s="46"/>
       <c r="L32" s="51"/>
@@ -5241,25 +5222,25 @@
       <c r="S32" s="45"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="172">
         <v>4000</v>
       </c>
       <c r="C33" s="11">
         <v>275</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="180"/>
       <c r="H33" s="8"/>
       <c r="K33" s="52"/>
       <c r="L33" s="51"/>
@@ -5272,25 +5253,25 @@
       <c r="S33" s="45"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="171">
         <v>1200</v>
       </c>
       <c r="C34" s="17">
         <v>80</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="175"/>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="180"/>
       <c r="H34" s="19"/>
       <c r="K34" s="52"/>
       <c r="L34" s="51"/>
@@ -5303,25 +5284,25 @@
       <c r="S34" s="45"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="171">
         <v>100</v>
       </c>
       <c r="C35" s="17">
         <v>15</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="175"/>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="180"/>
       <c r="H35" s="19"/>
       <c r="K35" s="52"/>
       <c r="L35" s="51"/>
@@ -5334,45 +5315,45 @@
       <c r="S35" s="45"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="171">
         <v>30</v>
       </c>
       <c r="C36" s="17">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="175"/>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="180"/>
       <c r="H36" s="19"/>
       <c r="K36" s="52"/>
       <c r="L36" s="51"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="173"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="175"/>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="180"/>
       <c r="H37" s="19"/>
       <c r="K37" s="52"/>
       <c r="L37" s="51"/>
@@ -5385,21 +5366,21 @@
       <c r="S37" s="45"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="173"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="175"/>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="180"/>
       <c r="H38" s="19"/>
       <c r="K38" s="52"/>
       <c r="L38" s="52"/>
@@ -5663,7 +5644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB9999A-53E3-4C2B-86FC-1EC5B8E86385}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D8C7B5-220E-4879-B77A-8F45C64E116E}">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
@@ -5789,30 +5770,18 @@
       <c r="H8" s="90"/>
     </row>
     <row r="9" ht="15.75">
-      <c r="A9" s="159" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="159" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="160" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="163" t="s">
-        <v>86</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="91">
+        <v>5798009991966</v>
+      </c>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="93"/>
     </row>
     <row r="10" ht="15.75">
       <c r="A10" s="1" t="s">
@@ -5837,25 +5806,25 @@
       <c r="H11" s="86"/>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="164" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="165" t="s">
+      <c r="A12" s="162" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="165" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="167" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="167" t="s">
+      <c r="E12" s="161" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="168" t="s">
+      <c r="G12" s="179" t="s">
         <v>87</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -5863,46 +5832,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="168">
         <v>1400</v>
       </c>
       <c r="C13" s="6">
         <v>28</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="174">
         <v>3</v>
       </c>
       <c r="E13" s="15">
         <f ref="E13:E38" t="shared" si="0">C13*D13</f>
         <v>84</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="29">
+      <c r="F13" s="177"/>
+      <c r="G13" s="180">
         <f>SUM(B13)*D13</f>
         <v>4200</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="168">
         <v>1300</v>
       </c>
       <c r="C14" s="6">
         <v>28</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="29">
+      <c r="F14" s="177"/>
+      <c r="G14" s="180">
         <f ref="G14:G27" t="shared" si="1">SUM(B14)*D14</f>
         <v>0</v>
       </c>
@@ -5911,136 +5880,136 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="168">
         <v>900</v>
       </c>
       <c r="C15" s="6">
         <v>26</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="174">
         <v>2</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="29">
+      <c r="F15" s="177"/>
+      <c r="G15" s="180">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="168">
         <v>640</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="174"/>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="29">
+      <c r="F16" s="177"/>
+      <c r="G16" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="168">
         <v>600</v>
       </c>
       <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="174"/>
       <c r="E17" s="15">
         <f>C17*D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="29">
+      <c r="F17" s="177"/>
+      <c r="G17" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="168">
         <v>600</v>
       </c>
       <c r="C18" s="6">
         <v>28</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="174"/>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="29">
+      <c r="F18" s="177"/>
+      <c r="G18" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="168">
         <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="174">
         <v>52</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="F19" s="178"/>
+      <c r="G19" s="180">
         <f t="shared" si="1"/>
         <v>3640</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="168">
         <v>70</v>
       </c>
       <c r="C20" s="6">
         <v>5.5</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="174"/>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="F20" s="178"/>
+      <c r="G20" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6049,397 +6018,397 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="169">
         <v>70</v>
       </c>
       <c r="C21" s="6">
         <v>7</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="174">
         <v>5</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="178">
         <f>SUM(B21)*D21</f>
         <v>350</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="180"/>
       <c r="H21" s="76"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="169">
         <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="174">
         <v>5</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="178">
         <f ref="F22:F24" t="shared" si="2">SUM(B22)*D22</f>
         <v>350</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="180"/>
       <c r="H22" s="76"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="170">
         <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="174"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="180"/>
       <c r="H23" s="76"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="170">
         <v>80</v>
       </c>
       <c r="C24" s="43">
         <v>9</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="174"/>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="180"/>
       <c r="H24" s="76"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="170">
         <v>100</v>
       </c>
       <c r="C25" s="11">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="174">
         <v>80</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="F25" s="178"/>
+      <c r="G25" s="180">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="H25" s="76"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="170">
         <v>100</v>
       </c>
       <c r="C26" s="11">
         <v>5.5</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="174"/>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
+      <c r="F26" s="178"/>
+      <c r="G26" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="76"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="170">
         <v>100</v>
       </c>
       <c r="C27" s="11">
         <v>5.5</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="174"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="178"/>
+      <c r="G27" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="76"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="171">
         <v>110</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="174">
         <v>10</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="178">
         <f>SUM(B28)*D28</f>
         <v>1100</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="180"/>
       <c r="H28" s="76"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="172">
         <v>80</v>
       </c>
       <c r="C29" s="11">
         <v>7</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="174"/>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="178">
         <f ref="F29:F38" t="shared" si="3">SUM(B29)*D29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="180"/>
       <c r="H29" s="77"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="172">
         <v>900</v>
       </c>
       <c r="C30" s="11">
         <v>100</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="174"/>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="180"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="172">
         <v>80</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="174"/>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="180"/>
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="172">
         <v>4000</v>
       </c>
       <c r="C32" s="11">
         <v>275</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="174"/>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="180"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="172">
         <v>4000</v>
       </c>
       <c r="C33" s="11">
         <v>275</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="180"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="171">
         <v>1200</v>
       </c>
       <c r="C34" s="17">
         <v>80</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="175"/>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="180"/>
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="171">
         <v>100</v>
       </c>
       <c r="C35" s="17">
         <v>15</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="175"/>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="180"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="171">
         <v>30</v>
       </c>
       <c r="C36" s="17">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="175"/>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="180"/>
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="173"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="175"/>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="180"/>
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="166"/>
+      <c r="B38" s="173"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="175"/>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="180"/>
       <c r="H38" s="19"/>
     </row>
     <row r="39">
@@ -6596,7 +6565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE53E42-780B-499D-A97F-9FC4A765FA86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF22D5-3E9E-43F1-B467-AD522177D509}">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
@@ -6722,30 +6691,18 @@
       <c r="H8" s="90"/>
     </row>
     <row r="9" ht="15.75">
-      <c r="A9" s="159" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="159" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="160" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="163" t="s">
-        <v>86</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="91">
+        <v>5798009991966</v>
+      </c>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="93"/>
     </row>
     <row r="10" ht="15.75">
       <c r="A10" s="1" t="s">
@@ -6770,25 +6727,25 @@
       <c r="H11" s="86"/>
     </row>
     <row r="12" ht="26.25" customHeight="1">
-      <c r="A12" s="164" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="165" t="s">
+      <c r="A12" s="162" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="165" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="167" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="167" t="s">
+      <c r="E12" s="161" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="168" t="s">
+      <c r="G12" s="179" t="s">
         <v>87</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -6796,46 +6753,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="168">
         <v>1400</v>
       </c>
       <c r="C13" s="6">
         <v>28</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="174">
         <v>3</v>
       </c>
       <c r="E13" s="15">
         <f ref="E13:E38" t="shared" si="0">C13*D13</f>
         <v>84</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="29">
+      <c r="F13" s="177"/>
+      <c r="G13" s="180">
         <f>SUM(B13)*D13</f>
         <v>4200</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="168">
         <v>1300</v>
       </c>
       <c r="C14" s="6">
         <v>28</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="29">
+      <c r="F14" s="177"/>
+      <c r="G14" s="180">
         <f ref="G14:G27" t="shared" si="1">SUM(B14)*D14</f>
         <v>0</v>
       </c>
@@ -6844,138 +6801,138 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="168">
         <v>900</v>
       </c>
       <c r="C15" s="6">
         <v>26</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="174"/>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="29">
+      <c r="F15" s="177"/>
+      <c r="G15" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="168">
         <v>640</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="174">
         <v>2</v>
       </c>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="29">
+      <c r="F16" s="177"/>
+      <c r="G16" s="180">
         <f t="shared" si="1"/>
         <v>1280</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="168">
         <v>600</v>
       </c>
       <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="174"/>
       <c r="E17" s="15">
         <f>C17*D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="29">
+      <c r="F17" s="177"/>
+      <c r="G17" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="168">
         <v>600</v>
       </c>
       <c r="C18" s="6">
         <v>28</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="174"/>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="29">
+      <c r="F18" s="177"/>
+      <c r="G18" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="168">
         <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="174">
         <v>60</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="F19" s="178"/>
+      <c r="G19" s="180">
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="168">
         <v>70</v>
       </c>
       <c r="C20" s="6">
         <v>5.5</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="174">
         <v>7</v>
       </c>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>38.5</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="F20" s="178"/>
+      <c r="G20" s="180">
         <f t="shared" si="1"/>
         <v>490</v>
       </c>
@@ -6984,407 +6941,407 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="169">
         <v>70</v>
       </c>
       <c r="C21" s="6">
         <v>7</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="174">
         <v>5</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="178">
         <f>SUM(B21)*D21</f>
         <v>350</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="180">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="H21" s="76"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="169">
         <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="174">
         <v>12</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="178">
         <f ref="F22:F24" t="shared" si="2">SUM(B22)*D22</f>
         <v>840</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="180">
         <f t="shared" si="1"/>
         <v>840</v>
       </c>
       <c r="H22" s="76"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="170">
         <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="174"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="180"/>
       <c r="H23" s="76"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="170">
         <v>80</v>
       </c>
       <c r="C24" s="43">
         <v>9</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="174"/>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="180"/>
       <c r="H24" s="76"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="170">
         <v>100</v>
       </c>
       <c r="C25" s="11">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="174">
         <v>80</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="F25" s="178"/>
+      <c r="G25" s="180">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="H25" s="76"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="170">
         <v>100</v>
       </c>
       <c r="C26" s="11">
         <v>5.5</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="174"/>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
+      <c r="F26" s="178"/>
+      <c r="G26" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="76"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="170">
         <v>100</v>
       </c>
       <c r="C27" s="11">
         <v>5.5</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="174"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="178"/>
+      <c r="G27" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="76"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="171">
         <v>110</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="174">
         <v>10</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="178">
         <f>SUM(B28)*D28</f>
         <v>1100</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="180"/>
       <c r="H28" s="76"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="172">
         <v>80</v>
       </c>
       <c r="C29" s="11">
         <v>7</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="174"/>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="178">
         <f ref="F29:F38" t="shared" si="3">SUM(B29)*D29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="180"/>
       <c r="H29" s="77"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="172">
         <v>900</v>
       </c>
       <c r="C30" s="11">
         <v>100</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="174"/>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="180"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="172">
         <v>80</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="174"/>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="180"/>
       <c r="H31" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="172">
         <v>4000</v>
       </c>
       <c r="C32" s="11">
         <v>275</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="174"/>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="180"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="172">
         <v>4000</v>
       </c>
       <c r="C33" s="11">
         <v>275</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="180"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="171">
         <v>1200</v>
       </c>
       <c r="C34" s="17">
         <v>80</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="175"/>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="180"/>
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="171">
         <v>100</v>
       </c>
       <c r="C35" s="17">
         <v>15</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="175"/>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="180"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="171">
         <v>30</v>
       </c>
       <c r="C36" s="17">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="175"/>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="180"/>
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="173"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="175"/>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="180"/>
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="173"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="175"/>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="180"/>
       <c r="H38" s="19"/>
     </row>
     <row r="39">
@@ -7542,7 +7499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B7668C-465C-4DBB-9493-51954513ED60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A21CF-3F68-4E8D-9C90-B45BF9412588}">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
@@ -7668,30 +7625,18 @@
       <c r="H8" s="90"/>
     </row>
     <row r="9" ht="15.75">
-      <c r="A9" s="159" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="160" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="161" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="163" t="s">
-        <v>86</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="91">
+        <v>5798009991966</v>
+      </c>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="93"/>
     </row>
     <row r="10" ht="15.75">
       <c r="A10" s="1" t="s">
@@ -7716,25 +7661,25 @@
       <c r="H11" s="86"/>
     </row>
     <row r="12" ht="26.25">
-      <c r="A12" s="164" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="165" t="s">
+      <c r="A12" s="162" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="165" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="167" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="167" t="s">
+      <c r="E12" s="161" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="168" t="s">
+      <c r="G12" s="179" t="s">
         <v>87</v>
       </c>
       <c r="H12" s="26" t="s">
@@ -7742,46 +7687,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="168">
         <v>1400</v>
       </c>
       <c r="C13" s="6">
         <v>28</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="174">
         <v>8</v>
       </c>
       <c r="E13" s="15">
         <f ref="E13:E38" t="shared" si="0">C13*D13</f>
         <v>224</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="29">
+      <c r="F13" s="177"/>
+      <c r="G13" s="180">
         <f>SUM(B13)*D13</f>
         <v>11200</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="168">
         <v>1300</v>
       </c>
       <c r="C14" s="6">
         <v>28</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="29">
+      <c r="F14" s="177"/>
+      <c r="G14" s="180">
         <f ref="G14:G27" t="shared" si="1">SUM(B14)*D14</f>
         <v>0</v>
       </c>
@@ -7790,136 +7735,136 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="168">
         <v>900</v>
       </c>
       <c r="C15" s="6">
         <v>26</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="174">
         <v>2</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="29">
+      <c r="F15" s="177"/>
+      <c r="G15" s="180">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="168">
         <v>640</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="174"/>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="29">
+      <c r="F16" s="177"/>
+      <c r="G16" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="168">
         <v>600</v>
       </c>
       <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="174"/>
       <c r="E17" s="15">
         <f>C17*D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="29">
+      <c r="F17" s="177"/>
+      <c r="G17" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="168">
         <v>600</v>
       </c>
       <c r="C18" s="6">
         <v>28</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="174"/>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="29">
+      <c r="F18" s="177"/>
+      <c r="G18" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="168">
         <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="174">
         <v>52</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="F19" s="178"/>
+      <c r="G19" s="180">
         <f t="shared" si="1"/>
         <v>3640</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="168">
         <v>70</v>
       </c>
       <c r="C20" s="6">
         <v>5.5</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="174"/>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="F20" s="178"/>
+      <c r="G20" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7928,399 +7873,399 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="169">
         <v>70</v>
       </c>
       <c r="C21" s="6">
         <v>7</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="174">
         <v>5</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="178">
         <f>SUM(B21)*D21</f>
         <v>350</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="180"/>
       <c r="H21" s="76"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="169">
         <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="174">
         <v>5</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="178">
         <f ref="F22:F24" t="shared" si="2">SUM(B22)*D22</f>
         <v>350</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="180"/>
       <c r="H22" s="76"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="170">
         <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="174"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="180"/>
       <c r="H23" s="76"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="170">
         <v>80</v>
       </c>
       <c r="C24" s="43">
         <v>9</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="174"/>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="180"/>
       <c r="H24" s="76"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="170">
         <v>100</v>
       </c>
       <c r="C25" s="11">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="174"/>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="F25" s="178"/>
+      <c r="G25" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="76"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="170">
         <v>100</v>
       </c>
       <c r="C26" s="11">
         <v>5.5</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="174">
         <v>60</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
+      <c r="F26" s="178"/>
+      <c r="G26" s="180">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="H26" s="76"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="170">
         <v>100</v>
       </c>
       <c r="C27" s="11">
         <v>5.5</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="174"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="178"/>
+      <c r="G27" s="180">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="76"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="171">
         <v>110</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="174">
         <v>6</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="178">
         <f>SUM(B28)*D28</f>
         <v>660</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="180"/>
       <c r="H28" s="76"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="172">
         <v>80</v>
       </c>
       <c r="C29" s="11">
         <v>7</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="174"/>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="178">
         <f ref="F29:F38" t="shared" si="3">SUM(B29)*D29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="180"/>
       <c r="H29" s="77"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="172">
         <v>900</v>
       </c>
       <c r="C30" s="11">
         <v>100</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="174"/>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="180"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="172">
         <v>80</v>
       </c>
       <c r="C31" s="11">
         <v>9</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="174"/>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="180"/>
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="172">
         <v>4000</v>
       </c>
       <c r="C32" s="11">
         <v>275</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="174"/>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="180"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="172">
         <v>4000</v>
       </c>
       <c r="C33" s="11">
         <v>275</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="174"/>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="180"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="171">
         <v>1200</v>
       </c>
       <c r="C34" s="17">
         <v>80</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="175"/>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="180"/>
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="171">
         <v>100</v>
       </c>
       <c r="C35" s="17">
         <v>15</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="175"/>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="180"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="171">
         <v>30</v>
       </c>
       <c r="C36" s="17">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="175"/>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="180"/>
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="173"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="175"/>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="180"/>
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="166" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="173"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="175"/>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="180"/>
       <c r="H38" s="19"/>
     </row>
     <row r="39">
@@ -12459,7 +12404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A8F5A4-F646-4F17-946D-9990060EBC9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEE1FD1-0B6B-43E4-AC7E-DA65372CF3C5}">
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
@@ -12649,7 +12594,7 @@
       <c r="F11" s="86"/>
       <c r="G11" s="86"/>
       <c r="H11" s="86"/>
-      <c r="I11" s="149" t="s">
+      <c r="I11" s="148" t="s">
         <v>84</v>
       </c>
     </row>
@@ -12677,6 +12622,9 @@
       </c>
       <c r="H12" s="26" t="s">
         <v>21</v>
+      </c>
+      <c r="I12" s="150" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -12920,7 +12868,7 @@
       <c r="H22" s="76"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="138" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="140">
@@ -12964,13 +12912,13 @@
       <c r="H24" s="76"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="142" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="140">
         <v>100</v>
       </c>
-      <c r="C25" s="142">
+      <c r="C25" s="143">
         <v>5.5</v>
       </c>
       <c r="D25" s="7"/>
@@ -12986,13 +12934,13 @@
       <c r="H25" s="76"/>
     </row>
     <row r="26">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="142" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="140">
         <v>100</v>
       </c>
-      <c r="C26" s="142">
+      <c r="C26" s="143">
         <v>5.5</v>
       </c>
       <c r="D26" s="131">
@@ -13010,13 +12958,13 @@
       <c r="H26" s="76"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="142" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="140">
         <v>100</v>
       </c>
-      <c r="C27" s="142">
+      <c r="C27" s="143">
         <v>5.5</v>
       </c>
       <c r="D27" s="7"/>
@@ -13032,7 +12980,7 @@
       <c r="H27" s="76"/>
     </row>
     <row r="28">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="142" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="144">
@@ -13056,7 +13004,7 @@
       <c r="H28" s="76"/>
     </row>
     <row r="29">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="142" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="146">
@@ -13124,7 +13072,7 @@
       <c r="H31" s="16"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="149" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="146">
@@ -13146,7 +13094,7 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="149" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="146">
@@ -13168,13 +13116,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="151" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="144">
         <v>1200</v>
       </c>
-      <c r="C34" s="151">
+      <c r="C34" s="152">
         <v>80</v>
       </c>
       <c r="D34" s="18"/>
@@ -13190,13 +13138,13 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="153" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="144">
         <v>100</v>
       </c>
-      <c r="C35" s="151">
+      <c r="C35" s="152">
         <v>15</v>
       </c>
       <c r="D35" s="18"/>
@@ -13212,13 +13160,13 @@
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="144">
         <v>30</v>
       </c>
-      <c r="C36" s="151">
+      <c r="C36" s="152">
         <v>8</v>
       </c>
       <c r="D36" s="18"/>
@@ -13234,7 +13182,7 @@
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="152" t="s">
+      <c r="A37" s="153" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="13"/>
@@ -13280,7 +13228,7 @@
       <c r="H39" s="62"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="153" t="s">
+      <c r="A40" s="154" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="62"/>
@@ -13322,7 +13270,7 @@
         <f>SUM(F21)+F22+F23+F24+F36+F28+F29+F30+F31+F32+F33+N33+F34+F35+F37</f>
         <v>3350</v>
       </c>
-      <c r="G42" s="154">
+      <c r="G42" s="155">
         <f>SUM(G13:G38)</f>
         <v>24340</v>
       </c>
@@ -13344,7 +13292,7 @@
       <c r="H43" s="94"/>
     </row>
     <row r="44" ht="15.75">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="156" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="64"/>
@@ -13356,7 +13304,7 @@
       <c r="H44" s="66"/>
     </row>
     <row r="45" ht="15.75">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="156" t="s">
         <v>59</v>
       </c>
       <c r="B45" s="64"/>
@@ -13431,7 +13379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DECE26A-5EDF-4C5E-AEFB-89945DF94C05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79330C3D-D4C6-4A5F-888C-4D2ADB9C362C}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -13621,7 +13569,7 @@
       <c r="F11" s="86"/>
       <c r="G11" s="86"/>
       <c r="H11" s="86"/>
-      <c r="U11" s="149" t="s">
+      <c r="U11" s="148" t="s">
         <v>84</v>
       </c>
     </row>
@@ -13649,6 +13597,9 @@
       </c>
       <c r="H12" s="26" t="s">
         <v>21</v>
+      </c>
+      <c r="U12" s="150" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -13932,7 +13883,7 @@
       <c r="S22" s="45"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="138" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="140">
@@ -13994,13 +13945,13 @@
       <c r="S24" s="45"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="142" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="140">
         <v>100</v>
       </c>
-      <c r="C25" s="142">
+      <c r="C25" s="143">
         <v>5.5</v>
       </c>
       <c r="D25" s="131">
@@ -14027,13 +13978,13 @@
       <c r="S25" s="45"/>
     </row>
     <row r="26">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="142" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="140">
         <v>100</v>
       </c>
-      <c r="C26" s="142">
+      <c r="C26" s="143">
         <v>5.5</v>
       </c>
       <c r="D26" s="7"/>
@@ -14058,13 +14009,13 @@
       <c r="S26" s="45"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="142" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="140">
         <v>100</v>
       </c>
-      <c r="C27" s="142">
+      <c r="C27" s="143">
         <v>5.5</v>
       </c>
       <c r="D27" s="7"/>
@@ -14089,7 +14040,7 @@
       <c r="S27" s="45"/>
     </row>
     <row r="28">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="142" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="144">
@@ -14122,7 +14073,7 @@
       <c r="S28" s="45"/>
     </row>
     <row r="29">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="142" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="146">
@@ -14215,7 +14166,7 @@
       <c r="S31" s="45"/>
     </row>
     <row r="32">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="149" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="146">
@@ -14246,7 +14197,7 @@
       <c r="S32" s="45"/>
     </row>
     <row r="33">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="149" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="146">
@@ -14277,13 +14228,13 @@
       <c r="S33" s="45"/>
     </row>
     <row r="34">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="151" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="144">
         <v>1200</v>
       </c>
-      <c r="C34" s="151">
+      <c r="C34" s="152">
         <v>80</v>
       </c>
       <c r="D34" s="18"/>
@@ -14308,13 +14259,13 @@
       <c r="S34" s="45"/>
     </row>
     <row r="35">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="153" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="144">
         <v>100</v>
       </c>
-      <c r="C35" s="151">
+      <c r="C35" s="152">
         <v>15</v>
       </c>
       <c r="D35" s="18"/>
@@ -14339,13 +14290,13 @@
       <c r="S35" s="45"/>
     </row>
     <row r="36">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="144">
         <v>30</v>
       </c>
-      <c r="C36" s="151">
+      <c r="C36" s="152">
         <v>8</v>
       </c>
       <c r="D36" s="18"/>
@@ -14363,7 +14314,7 @@
       <c r="L36" s="51"/>
     </row>
     <row r="37">
-      <c r="A37" s="152" t="s">
+      <c r="A37" s="153" t="s">
         <v>63</v>
       </c>
       <c r="B37" s="13"/>
@@ -14390,7 +14341,7 @@
       <c r="S37" s="45"/>
     </row>
     <row r="38">
-      <c r="A38" s="156" t="s">
+      <c r="A38" s="157" t="s">
         <v>64</v>
       </c>
       <c r="B38" s="13"/>
@@ -14438,7 +14389,7 @@
       <c r="S39" s="45"/>
     </row>
     <row r="40">
-      <c r="A40" s="153" t="s">
+      <c r="A40" s="154" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="62"/>
@@ -14498,7 +14449,7 @@
         <f>SUM(F21)+F22+F23+F24+F36+F28+F29+F30+F31+F32+F33+N33+F34+F35+F37</f>
         <v>2080</v>
       </c>
-      <c r="G42" s="154">
+      <c r="G42" s="155">
         <f>SUM(G13:G38)</f>
         <v>22760</v>
       </c>
@@ -14538,7 +14489,7 @@
       <c r="S43" s="45"/>
     </row>
     <row r="44" ht="15.75">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="156" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="64"/>
@@ -14559,7 +14510,7 @@
       <c r="S44" s="45"/>
     </row>
     <row r="45" ht="15.75">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="156" t="s">
         <v>59</v>
       </c>
       <c r="B45" s="64"/>
@@ -14668,7 +14619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84B835A-3336-4390-8464-5EB405AA0CDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31537AF5-4B42-4912-AE75-747904D2538A}">
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
@@ -14858,7 +14809,7 @@
       <c r="F11" s="86"/>
       <c r="G11" s="86"/>
       <c r="H11" s="86"/>
-      <c r="I11" s="149" t="s">
+      <c r="I11" s="148" t="s">
         <v>84</v>
       </c>
     </row>
@@ -14886,6 +14837,9 @@
       </c>
       <c r="H12" s="26" t="s">
         <v>21</v>
+      </c>
+      <c r="I12" s="150" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -15123,7 +15077,7 @@
       <c r="H22" s="76"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="138" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="140">
@@ -15167,13 +15121,13 @@
       <c r="H24" s="76"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="142" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="140">
         <v>100</v>
       </c>
-      <c r="C25" s="142">
+      <c r="C25" s="143">
         <v>5.5</v>
       </c>
       <c r="D25" s="131">
@@ -15191,13 +15145,13 @@
       <c r="H25" s="76"/>
     </row>
     <row r="26">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="142" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="140">
         <v>100</v>
       </c>
-      <c r="C26" s="142">
+      <c r="C26" s="143">
         <v>5.5</v>
       </c>
       <c r="D26" s="7"/>
@@ -15213,13 +15167,13 @@
       <c r="H26" s="76"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="142" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="140">
         <v>100</v>
       </c>
-      <c r="C27" s="142">
+      <c r="C27" s="143">
         <v>5.5</v>
       </c>
       <c r="D27" s="7"/>
@@ -15235,7 +15189,7 @@
       <c r="H27" s="76"/>
     </row>
     <row r="28">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="142" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="144">
@@ -15259,7 +15213,7 @@
       <c r="H28" s="76"/>
     </row>
     <row r="29">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="142" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="146">
@@ -15325,7 +15279,7 @@
       <c r="H31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="149" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="146">
@@ -15347,7 +15301,7 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="149" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="146">
@@ -15369,13 +15323,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="151" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="144">
         <v>1200</v>
       </c>
-      <c r="C34" s="151">
+      <c r="C34" s="152">
         <v>80</v>
       </c>
       <c r="D34" s="18"/>
@@ -15391,13 +15345,13 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="153" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="144">
         <v>100</v>
       </c>
-      <c r="C35" s="151">
+      <c r="C35" s="152">
         <v>15</v>
       </c>
       <c r="D35" s="18"/>
@@ -15413,13 +15367,13 @@
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="144">
         <v>30</v>
       </c>
-      <c r="C36" s="151">
+      <c r="C36" s="152">
         <v>8</v>
       </c>
       <c r="D36" s="18"/>
@@ -15435,7 +15389,7 @@
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="153" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="13"/>
@@ -15481,7 +15435,7 @@
       <c r="H39" s="62"/>
     </row>
     <row r="40">
-      <c r="A40" s="153" t="s">
+      <c r="A40" s="154" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="62"/>
@@ -15523,7 +15477,7 @@
         <f>SUM(F21)+F22+F23+F24+F36+F28+F29+F30+F31+F32+F33+N33+F34+F35+F37</f>
         <v>1800</v>
       </c>
-      <c r="G42" s="154">
+      <c r="G42" s="155">
         <f>SUM(G13:G38)</f>
         <v>17640</v>
       </c>
@@ -15545,7 +15499,7 @@
       <c r="H43" s="94"/>
     </row>
     <row r="44" ht="15.75">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="156" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="64"/>
@@ -15557,7 +15511,7 @@
       <c r="H44" s="66"/>
     </row>
     <row r="45" ht="15.75">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="156" t="s">
         <v>59</v>
       </c>
       <c r="B45" s="64"/>
@@ -15622,7 +15576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C35806-1129-470B-862B-EDA90A33BA37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8600ED77-AF07-4EF4-BA6F-6A3B726774CE}">
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
@@ -15812,7 +15766,7 @@
       <c r="F11" s="86"/>
       <c r="G11" s="86"/>
       <c r="H11" s="86"/>
-      <c r="I11" s="149" t="s">
+      <c r="I11" s="148" t="s">
         <v>84</v>
       </c>
     </row>
@@ -15840,6 +15794,9 @@
       </c>
       <c r="H12" s="26" t="s">
         <v>21</v>
+      </c>
+      <c r="I12" s="150" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -16085,7 +16042,7 @@
       <c r="H22" s="76"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="138" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="140">
@@ -16129,13 +16086,13 @@
       <c r="H24" s="76"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="142" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="140">
         <v>100</v>
       </c>
-      <c r="C25" s="142">
+      <c r="C25" s="143">
         <v>5.5</v>
       </c>
       <c r="D25" s="131">
@@ -16153,13 +16110,13 @@
       <c r="H25" s="76"/>
     </row>
     <row r="26">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="142" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="140">
         <v>100</v>
       </c>
-      <c r="C26" s="142">
+      <c r="C26" s="143">
         <v>5.5</v>
       </c>
       <c r="D26" s="7"/>
@@ -16175,13 +16132,13 @@
       <c r="H26" s="76"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="142" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="140">
         <v>100</v>
       </c>
-      <c r="C27" s="142">
+      <c r="C27" s="143">
         <v>5.5</v>
       </c>
       <c r="D27" s="7"/>
@@ -16197,7 +16154,7 @@
       <c r="H27" s="76"/>
     </row>
     <row r="28">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="142" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="144">
@@ -16221,7 +16178,7 @@
       <c r="H28" s="76"/>
     </row>
     <row r="29">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="142" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="146">
@@ -16289,7 +16246,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="149" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="146">
@@ -16311,7 +16268,7 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="149" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="146">
@@ -16333,13 +16290,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="151" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="144">
         <v>1200</v>
       </c>
-      <c r="C34" s="151">
+      <c r="C34" s="152">
         <v>80</v>
       </c>
       <c r="D34" s="18"/>
@@ -16355,13 +16312,13 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="153" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="144">
         <v>100</v>
       </c>
-      <c r="C35" s="151">
+      <c r="C35" s="152">
         <v>15</v>
       </c>
       <c r="D35" s="18"/>
@@ -16377,13 +16334,13 @@
       <c r="H35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="144">
         <v>30</v>
       </c>
-      <c r="C36" s="151">
+      <c r="C36" s="152">
         <v>8</v>
       </c>
       <c r="D36" s="18"/>
@@ -16399,7 +16356,7 @@
       <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="152" t="s">
+      <c r="A37" s="153" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="13"/>
@@ -16417,7 +16374,7 @@
       <c r="H37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="153" t="s">
         <v>50</v>
       </c>
       <c r="B38" s="13"/>
@@ -16447,7 +16404,7 @@
       <c r="H39" s="62"/>
     </row>
     <row r="40">
-      <c r="A40" s="153" t="s">
+      <c r="A40" s="154" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="62"/>
@@ -16489,7 +16446,7 @@
         <f>SUM(F21)+F22+F23+F24+F36+F28+F29+F30+F31+F32+F33+N33+F34+F35+F37</f>
         <v>2290</v>
       </c>
-      <c r="G42" s="154">
+      <c r="G42" s="155">
         <f>SUM(G13:G38)</f>
         <v>19360</v>
       </c>
@@ -16511,7 +16468,7 @@
       <c r="H43" s="94"/>
     </row>
     <row r="44" ht="15.75">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="156" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="64"/>
@@ -16523,7 +16480,7 @@
       <c r="H44" s="66"/>
     </row>
     <row r="45" ht="15.75">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="156" t="s">
         <v>59</v>
       </c>
       <c r="B45" s="64"/>
